--- a/biology/Biologie cellulaire et moléculaire/Saut_sur_le_chromosome/Saut_sur_le_chromosome.xlsx
+++ b/biology/Biologie cellulaire et moléculaire/Saut_sur_le_chromosome/Saut_sur_le_chromosome.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le saut sur le chromosome est une technique de biologie moléculaire utilisée pour établir une carte physique d'un génome. Cette technique est utilisée avec d'autres méthodes, comme la marche sur le chromosome[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le saut sur le chromosome est une technique de biologie moléculaire utilisée pour établir une carte physique d'un génome. Cette technique est utilisée avec d'autres méthodes, comme la marche sur le chromosome.
 Le saut sur le chromosome est utilisé pour contourner des régions difficiles à cloner, telles que les séquences d'ADN répétées, qui ne peuvent pas être cartographiées par la marche sur le chromosome. C'est ainsi utile pour explorer un génome rapidement et identifier un gène particulier.
 </t>
         </is>
@@ -512,7 +524,9 @@
           <t>Principe</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">La région d'intérêt (une portion de chromosome) doit être repérée par étude de liaison génétique. Le principe de la méthode consiste ensuite à couper l'ADN avec une enzyme de restriction avec des sites peu fréquents, afin de générer des grands fragments.
 Ces grands fragments sont ensuite circularisés par ligature de leurs extrémités avec une ADN ligase. On introduit un gène marqueur lors de cette étape, ce qui permettra de sélectionner les segments circularisés. Le gène supF, qui code un ARNt suppresseur d'Escherichia coli a été initialement utilisé en raison de sa faible longueur qui facilite le séquençage ultérieur (voir ci-dessous).
